--- a/2024-01-11-sql-design-select/docs/database-design.xlsx
+++ b/2024-01-11-sql-design-select/docs/database-design.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\jb-fullstack-458-47\2024-01-08-react-firebase-sql\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\jb-fullstack-458-47\2024-01-11-sql-design-select\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="46">
   <si>
     <t>id</t>
   </si>
@@ -113,9 +113,6 @@
     <t>gurevitz</t>
   </si>
   <si>
-    <t>credit card</t>
-  </si>
-  <si>
     <t>valid</t>
   </si>
   <si>
@@ -141,6 +138,30 @@
   </si>
   <si>
     <t>primary key</t>
+  </si>
+  <si>
+    <t>foreign key</t>
+  </si>
+  <si>
+    <t>1,1</t>
+  </si>
+  <si>
+    <t>3,3</t>
+  </si>
+  <si>
+    <t>1,3</t>
+  </si>
+  <si>
+    <t>2,1</t>
+  </si>
+  <si>
+    <t>3,2</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>credit card (unique)</t>
   </si>
 </sst>
 </file>
@@ -475,10 +496,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:M35"/>
+  <dimension ref="C3:M36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -487,7 +508,7 @@
     <col min="3" max="3" width="12.25" style="1" customWidth="1"/>
     <col min="4" max="4" width="16.25" style="1" customWidth="1"/>
     <col min="5" max="5" width="21.125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.375" style="1" customWidth="1"/>
     <col min="7" max="7" width="19.25" style="1" customWidth="1"/>
     <col min="8" max="8" width="18.75" style="1" customWidth="1"/>
     <col min="9" max="9" width="46.75" style="1" customWidth="1"/>
@@ -586,7 +607,7 @@
         <v>2</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L6" s="1" t="s">
         <v>19</v>
@@ -609,7 +630,7 @@
         <v>3</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L7" s="1" t="s">
         <v>19</v>
@@ -632,6 +653,14 @@
         <v>850</v>
       </c>
     </row>
+    <row r="9" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
     <row r="11" spans="3:13" x14ac:dyDescent="0.25">
       <c r="L11" s="1" t="s">
         <v>15</v>
@@ -701,21 +730,24 @@
     </row>
     <row r="24" spans="3:13" x14ac:dyDescent="0.25">
       <c r="F24" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="E25" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I25" s="1" t="s">
         <v>32</v>
-      </c>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="F25" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="26" spans="3:13" x14ac:dyDescent="0.25">
@@ -728,12 +760,12 @@
     </row>
     <row r="28" spans="3:13" x14ac:dyDescent="0.25">
       <c r="D28" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="29" spans="3:13" x14ac:dyDescent="0.25">
       <c r="E29" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F29" s="4"/>
     </row>
@@ -742,7 +774,10 @@
         <v>22</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="31" spans="3:13" x14ac:dyDescent="0.25">
@@ -752,6 +787,9 @@
       <c r="F31" s="1">
         <v>1</v>
       </c>
+      <c r="G31" s="1" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="32" spans="3:13" x14ac:dyDescent="0.25">
       <c r="E32" s="1">
@@ -760,29 +798,46 @@
       <c r="F32" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="G32" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="33" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E33" s="1">
         <v>2</v>
       </c>
       <c r="F33" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="G33" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="34" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E34" s="1">
         <v>3</v>
       </c>
       <c r="F34" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="35" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="G34" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="35" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E35" s="1">
         <v>3</v>
       </c>
       <c r="F35" s="1">
         <v>3</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="G36" s="1" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
